--- a/Databases/Lecture07.ADO.NET/Task6and7Excel/Scores.xlsx
+++ b/Databases/Lecture07.ADO.NET/Task6and7Excel/Scores.xlsx
@@ -372,11 +372,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +385,7 @@
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -401,7 +401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -409,7 +409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -417,12 +417,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Muncho</t>
+        </is>
+      </c>
+      <c r="B6" s="0">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
